--- a/styled.xlsx
+++ b/styled.xlsx
@@ -493,107 +493,107 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>T17</t>
+          <t>T167</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>T172</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T180</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>T181</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>T182</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>T192</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>T20</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>T21</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>T26</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>T27</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>T200</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>T211</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>T220</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>T221</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>T28</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>T29</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>T31</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>T32</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>T33</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>T34</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>T35</t>
+          <t>T78</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>T36</t>
+          <t>T79</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T80</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T81</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T85</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T167</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -1411,8 +1411,8 @@
       <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T180</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -1575,7 +1575,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>T21</t>
+          <t>T181</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -1672,7 +1672,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T182</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
@@ -1769,7 +1769,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>T26</t>
+          <t>T192</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
@@ -1866,7 +1866,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
@@ -1963,7 +1963,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>T28</t>
+          <t>T200</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
@@ -2060,7 +2060,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>T29</t>
+          <t>T211</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
@@ -2157,7 +2157,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T220</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -2254,7 +2254,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T221</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
@@ -2351,7 +2351,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>T31</t>
+          <t>T28</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
@@ -2448,7 +2448,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>T32</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
@@ -2545,7 +2545,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>T33</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -2642,7 +2642,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>T34</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -2739,7 +2739,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>T35</t>
+          <t>T78</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -2836,7 +2836,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>T36</t>
+          <t>T79</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -2933,7 +2933,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -2963,8 +2963,8 @@
       <c r="J26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="n">
-        <v>0</v>
+      <c r="K26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T80</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
@@ -3127,7 +3127,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T81</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -3224,7 +3224,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T85</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
